--- a/otu_data/beta_diversity_analysis/FxnTaxaPredictors.xlsx
+++ b/otu_data/beta_diversity_analysis/FxnTaxaPredictors.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/KeithSSD/CB_V4/otu_data/beta_diversity_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55B54959-B815-094F-8B10-7A672AADC70F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE98812-B9E1-1B40-8834-A3311E0C9110}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="16540" xr2:uid="{BAFE3672-D2C7-3145-A75C-DC00207C943C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="cluster_env_table" localSheetId="1">Sheet2!$A$1:$I$9</definedName>
     <definedName name="variable_importances" localSheetId="0">Sheet1!$A$1:$M$19</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +32,22 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{82714317-3AEE-0A46-8B9D-161BC8837D8E}" name="variable_importances" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{DED312AF-E1BB-6E42-8001-6725DBDCAAAD}" name="cluster_env_table" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Volumes/KeithSSD/CB_V4/otu_data/beta_diversity_analysis/cluster_env_table.txt">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{82714317-3AEE-0A46-8B9D-161BC8837D8E}" name="variable_importances" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Volumes/KeithSSD/CB_V4/otu_data/beta_diversity_analysis/variable_importances.txt">
       <textFields count="13">
         <textField/>
@@ -52,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="154">
   <si>
     <t>nfxn</t>
   </si>
@@ -228,9 +246,6 @@
     <t>dark_sulfide_oxidation:0.48, sulfate_respiration:0.36, aerobic_ammonia_oxidation:0.28, methylotrophy:-0.13, methanotrophy:-0.33, dark_hydrogen_oxidation:-0.3, aerobic_nitrite_oxidation:-0.28, nitrate_reduction:0.21, nitrogen_fixation:-0.28, aerobic_chemoheterotrophy:0.2, dark_oxidation_of_sulfur_compounds:0.31, predatory_or_exoparasitic:0.09, sulfur_respiration:-0.15</t>
   </si>
   <si>
-    <t>Burkholderiaceae:-0.23, Sporichthyaceae:-0.18, env:-0.13, Nisaeaceae:0.1, DEV007:0.1, Roseiflexaceae:-0.08, Actinomarinaceae:0.08, Gemmatimonadaceae:-0.08, Hyphomonadaceae:0.05, Thiotrichaceae:0.05, Sva1033:0.03, Desulfobulbaceae:0.03</t>
-  </si>
-  <si>
     <t>Burkholderiaceae:-0.66, Sporichthyaceae:-0.36, env:-0.55, Nisaeaceae:0.62, DEV007:0.5, Roseiflexaceae:-0.63, Actinomarinaceae:0.59, Gemmatimonadaceae:-0.59, Hyphomonadaceae:0.45, Thiotrichaceae:0.59, Sva1033:0.49, Desulfobulbaceae:0.3</t>
   </si>
   <si>
@@ -249,18 +264,9 @@
     <t>methanotrophy:0.5, dark_hydrogen_oxidation:0.47, nitrogen_fixation:0.46, dark_thiosulfate_oxidation:0.39, nitrate_reduction:-0.2, aerobic_ammonia_oxidation:-0.13, methylotrophy:-0.02, aerobic_chemoheterotrophy:-0.22, predatory_or_exoparasitic:-0.12, dark_sulfide_oxidation:-0.22, sulfur_respiration:0.39, chloroplasts:-0.18, denitrification:-0.11, nitrite_denitrification:-0.11</t>
   </si>
   <si>
-    <t>Litoricolaceae:-0.17, DEV007:-0.16, Balneolaceae:-0.11, Nisaeaceae:-0.11, TRA3:0.1, Caldilineaceae:0.07, Microcystaceae:-0.06, PS1_clade:-0.06, Mycoplasmataceae:0.06, Sporichthyaceae:0.06, Desulfovibrionaceae:0.05, Rhizobiales_Incertae_Sedis:0.05, Saprospiraceae:-0.04, Ilumatobacteraceae:0.04, Peptostreptococcaceae:0.04, Cyanobiaceae:-0.03, env:0.03, Magnetococcaceae:0.02</t>
-  </si>
-  <si>
     <t>Litoricolaceae:-0.49, DEV007:-0.6, Balneolaceae:-0.48, Nisaeaceae:-0.54, TRA3:0.64, Caldilineaceae:0.32, Microcystaceae:-0.31, PS1_clade:-0.54, Mycoplasmataceae:0.48, Sporichthyaceae:0.24, Desulfovibrionaceae:0.34, Rhizobiales_Incertae_Sedis:0.4, Saprospiraceae:-0.3, Ilumatobacteraceae:0.16, Peptostreptococcaceae:0.51, Cyanobiaceae:-0.24, env:0.53, Magnetococcaceae:0.27</t>
   </si>
   <si>
-    <t>Oceanospirillales.Litoricolaceae, Thalassobaculales.Nisaeaceae, Mycoplasmatales.Mycoplasmataceae, Frankiales.Sporichthyaceae, Desulfovibrionales.Desulfovibrionaceae, Rhizobiales.Rhizobiales_Incertae_Sedis, Chitinophagales.Saprospiraceae, Magnetococcales.Magnetococcaceae</t>
-  </si>
-  <si>
-    <t>Verrucomicrobiales.DEV007, Balneolales.Balneolaceae, Betaproteobacteriales.TRA3.20, Caldilineales.Caldilineaceae, Parvibaculales.PS1_clade, Microtrichales.Ilumatobacteraceae, Sphingobacteriales.env.OPS_17, Nostocales.Microcystaceae, Clostridiales.Peptostreptococcaceae, Synechococcales.Cyanobiaceae</t>
-  </si>
-  <si>
     <t>faith_pd</t>
   </si>
   <si>
@@ -342,9 +348,6 @@
     <t>Rhodobacterales.Rhodobacteraceae, Rhizobiales.Rhizobiaceae, Micrococcales.Microbacteriaceae, Oceanospirillales.Pseudohongiellaceae, Pirellulales.Pirellulaceae, Oceanospirillales.Kangiellaceae, Rickettsiales.Rickettsiaceae, Flavobacteriales.Flavobacteriaceae</t>
   </si>
   <si>
-    <t>Oligoflexales.Oligoflexaceae, Cellvibrionales.Spongiibacteraceae, Phycisphaerales.Phycisphaeraceae, Rhodospirillales.AEGEAN.169_marine_group, Betaproteobacteriales.Neisseriaceae, Oligoflexales.0319.6G20</t>
-  </si>
-  <si>
     <t>anti_day_length</t>
   </si>
   <si>
@@ -363,9 +366,6 @@
     <t>Oceanospirillales.Pseudohongiellaceae, Rhodobacterales.Rhodobacteraceae, Micrococcales.Microbacteriaceae, Chthoniobacterales.Chthoniobacteraceae, Nitrosopumilales.Nitrosopumilaceae, Desulfarculales.Desulfarculaceae, Coxiellales.Coxiellaceae, Ectothiorhodospirales.Ectothiorhodospiraceae, Verrucomicrobiales.Rubritaleaceae, Betaproteobacteriales.Methylophilaceae, Rickettsiales.Rickettsiaceae</t>
   </si>
   <si>
-    <t>Oligoflexales.Oligoflexaceae, Cellvibrionales.Halieaceae, Phycisphaerales.Phycisphaeraceae, Rhodospirillales.AEGEAN.169_marine_group</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -466,14 +466,406 @@
   </si>
   <si>
     <t>Planctomycetales.Gimesiaceae, Cellvibrionales.Halieaceae, Oligoflexales.Oligoflexaceae, Chitinivibrionales.Chitinivibrionaceae, Actinomarinales.Actinomarinaceae</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Litoricolaceae:-0.17, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEV007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:-0.16, Balneolaceae:-0.11, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nisaeaceae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:-0.11, TRA3:0.1, Caldilineaceae:0.07, Microcystaceae:-0.06, PS1_clade:-0.06, Mycoplasmataceae:0.06, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sporichthyaceae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:0.06, Desulfovibrionaceae:0.05, Rhizobiales_Incertae_Sedis:0.05, Saprospiraceae:-0.04, Ilumatobacteraceae:0.04, Peptostreptococcaceae:0.04, Cyanobiaceae:-0.03, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>env</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:0.03, Magnetococcaceae:0.02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Burkholderiaceae:-0.23, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sporichthyaceae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:-0.18, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>env</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:-0.13, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nisaeaceae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:0.1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEV007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:0.1, Roseiflexaceae:-0.08, Actinomarinaceae:0.08, Gemmatimonadaceae:-0.08, Hyphomonadaceae:0.05, Thiotrichaceae:0.05, Sva1033:0.03, Desulfobulbaceae:0.03</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verrucomicrobiales.DEV007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Balneolales.Balneolaceae, Betaproteobacteriales.TRA3.20, Caldilineales.Caldilineaceae, Parvibaculales.PS1_clade, Microtrichales.Ilumatobacteraceae, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sphingobacteriales.env.OPS_17,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nostocales.Microcystaceae, Clostridiales.Peptostreptococcaceae, Synechococcales.Cyanobiaceae</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oceanospirillales.Litoricolaceae, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thalassobaculales.Nisaeaceae,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mycoplasmatales.Mycoplasmataceae,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Frankiales.Sporichthyaceae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Desulfovibrionales.Desulfovibrionaceae, Rhizobiales.Rhizobiales_Incertae_Sedis, Chitinophagales.Saprospiraceae, Magnetococcales.Magnetococcaceae</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oligoflexales.Oligoflexaceae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Cellvibrionales.Spongiibacteraceae, Phycisphaerales.Phycisphaeraceae, Rhodospirillales.AEGEAN.169_marine_group, Betaproteobacteriales.Neisseriaceae, Oligoflexales.0319.6G20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oligoflexales.Oligoflexaceae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Cellvibrionales.Halieaceae, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phycisphaerales.Phycisphaeraceae,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Rhodospirillales.AEGEAN.169_marine_group</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean.WTEMP</t>
+  </si>
+  <si>
+    <t>SD.WTEMP</t>
+  </si>
+  <si>
+    <t>Mean.SALINITY</t>
+  </si>
+  <si>
+    <t>SD.SALINITY</t>
+  </si>
+  <si>
+    <t>Mean.NH4F</t>
+  </si>
+  <si>
+    <t>SD.NH4F</t>
+  </si>
+  <si>
+    <t>Mean.DO</t>
+  </si>
+  <si>
+    <t>SD.DO</t>
+  </si>
+  <si>
+    <t>Cluster.8</t>
+  </si>
+  <si>
+    <t>Cluster.1</t>
+  </si>
+  <si>
+    <t>Cluster.5</t>
+  </si>
+  <si>
+    <t>Cluster.2</t>
+  </si>
+  <si>
+    <t>Cluster.7</t>
+  </si>
+  <si>
+    <t>Cluster.4</t>
+  </si>
+  <si>
+    <t>Cluster.3</t>
+  </si>
+  <si>
+    <t>Cluster.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -501,11 +893,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +917,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="variable_importances" connectionId="1" xr16:uid="{7841D376-D693-CF48-A987-98770A4EEFB9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="variable_importances" connectionId="2" xr16:uid="{7841D376-D693-CF48-A987-98770A4EEFB9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cluster_env_table" connectionId="1" xr16:uid="{12D340DA-88AB-6F42-B1D6-98EEFFB85058}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,11 +1223,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C7A4A2-0D1A-5B4C-B44D-97BED02E443F}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
@@ -846,7 +1246,7 @@
     <col min="13" max="13" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +1284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="108" customHeight="1">
+    <row r="2" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -925,7 +1325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="65" customHeight="1">
+    <row r="3" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -966,7 +1366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48" customHeight="1">
+    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1007,7 +1407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1">
+    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1048,7 +1448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="48" customHeight="1">
+    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1089,7 +1489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="48" customHeight="1">
+    <row r="7" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1130,7 +1530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="48" customHeight="1">
+    <row r="8" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1153,16 +1553,16 @@
         <v>57</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -1171,9 +1571,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="48" customHeight="1">
+    <row r="9" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -1188,22 +1588,22 @@
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -1212,9 +1612,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="48" customHeight="1">
+    <row r="10" spans="1:13" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -1229,33 +1629,33 @@
         <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>72</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="48" customHeight="1">
-      <c r="A11" t="s">
-        <v>76</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1270,33 +1670,33 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>79</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="48" customHeight="1">
-      <c r="A12" t="s">
-        <v>83</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -1311,33 +1711,33 @@
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>86</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="171" customHeight="1">
-      <c r="A13" t="s">
-        <v>90</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -1352,22 +1752,22 @@
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="L13">
         <v>6</v>
@@ -1376,9 +1776,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="48" customHeight="1">
+    <row r="14" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>21</v>
@@ -1393,22 +1793,22 @@
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="L14">
         <v>6</v>
@@ -1417,9 +1817,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="48" customHeight="1">
+    <row r="15" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1434,22 +1834,22 @@
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -1458,9 +1858,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="48" customHeight="1">
+    <row r="16" spans="1:13" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -1475,22 +1875,22 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L16">
         <v>6</v>
@@ -1499,9 +1899,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="48" customHeight="1">
+    <row r="17" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -1516,19 +1916,19 @@
         <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L17" t="s">
         <v>19</v>
@@ -1537,9 +1937,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="48" customHeight="1">
+    <row r="18" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -1554,33 +1954,33 @@
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="48" customHeight="1">
-      <c r="A19" t="s">
-        <v>131</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -1595,28 +1995,309 @@
         <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s">
         <v>19</v>
       </c>
       <c r="M19" t="s">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DBC036-8CB7-7E47-A515-D4F8BBC9D63D}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="A1:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2">
+        <v>14.18</v>
+      </c>
+      <c r="C2">
+        <v>3.7</v>
+      </c>
+      <c r="D2">
+        <v>16.86</v>
+      </c>
+      <c r="E2">
+        <v>5.82</v>
+      </c>
+      <c r="F2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.09</v>
+      </c>
+      <c r="H2">
+        <v>7.22</v>
+      </c>
+      <c r="I2">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>17.36</v>
+      </c>
+      <c r="C3">
+        <v>6.67</v>
+      </c>
+      <c r="D3">
+        <v>20.54</v>
+      </c>
+      <c r="E3">
+        <v>5.19</v>
+      </c>
+      <c r="F3">
+        <v>0.09</v>
+      </c>
+      <c r="G3">
+        <v>0.08</v>
+      </c>
+      <c r="H3">
+        <v>5.38</v>
+      </c>
+      <c r="I3">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4">
+        <v>20.69</v>
+      </c>
+      <c r="C4">
+        <v>6.46</v>
+      </c>
+      <c r="D4">
+        <v>12.92</v>
+      </c>
+      <c r="E4">
+        <v>7.53</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I4">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5">
+        <v>22.42</v>
+      </c>
+      <c r="C5">
+        <v>6.02</v>
+      </c>
+      <c r="D5">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="E5">
+        <v>7.21</v>
+      </c>
+      <c r="F5">
+        <v>0.11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H5">
+        <v>3.79</v>
+      </c>
+      <c r="I5">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6">
+        <v>23.81</v>
+      </c>
+      <c r="C6">
+        <v>2.69</v>
+      </c>
+      <c r="D6">
+        <v>21.64</v>
+      </c>
+      <c r="E6">
+        <v>3.54</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <v>0.08</v>
+      </c>
+      <c r="H6">
+        <v>4.01</v>
+      </c>
+      <c r="I6">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7">
+        <v>24.31</v>
+      </c>
+      <c r="C7">
+        <v>3.19</v>
+      </c>
+      <c r="D7">
+        <v>18.64</v>
+      </c>
+      <c r="E7">
+        <v>4.72</v>
+      </c>
+      <c r="F7">
+        <v>0.13</v>
+      </c>
+      <c r="G7">
+        <v>0.08</v>
+      </c>
+      <c r="H7">
+        <v>1.68</v>
+      </c>
+      <c r="I7">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8">
+        <v>25.15</v>
+      </c>
+      <c r="C8">
+        <v>1.19</v>
+      </c>
+      <c r="D8">
+        <v>21.03</v>
+      </c>
+      <c r="E8">
+        <v>3.36</v>
+      </c>
+      <c r="F8">
+        <v>0.05</v>
+      </c>
+      <c r="G8">
+        <v>0.06</v>
+      </c>
+      <c r="H8">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="I8">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9">
+        <v>25.41</v>
+      </c>
+      <c r="C9">
+        <v>1.33</v>
+      </c>
+      <c r="D9">
+        <v>20.62</v>
+      </c>
+      <c r="E9">
+        <v>3.22</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.39</v>
+      </c>
+      <c r="I9">
+        <v>2.0299999999999998</v>
       </c>
     </row>
   </sheetData>
